--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2087976.99331098</v>
+        <v>2085432.400616696</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>96.86671316392828</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>48.47711506061771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>111.0567566117645</v>
+        <v>36.39469600159763</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>116.938717990298</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425892</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>140.3490189284139</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074786</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>147.8346768074451</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>3.481777442254653</v>
       </c>
     </row>
     <row r="7">
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>45.38538499976067</v>
+        <v>109.8100533469027</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>199.4701083542294</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>4.023709124811252</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>28.5776762774946</v>
+        <v>55.31717029709988</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -1269,7 +1269,7 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>185.6279506608914</v>
+        <v>250.7831302631783</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.0585636675433</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>31.26260713376574</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1661,10 +1661,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826188967</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986295</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760512</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>80.10107535865708</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520937</v>
       </c>
     </row>
     <row r="20">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460187</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000776</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428033</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159608946</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.336171476401</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="C2" t="n">
-        <v>351.336171476401</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>315.4971313776555</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>302.2669968018392</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>112.8472117853544</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123835</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985593</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652808</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823989</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659138</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659138</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659138</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659138</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659138</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.336171476401</v>
+        <v>322.4426321268589</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>469.7084696131274</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518762</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464207</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
         <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652808</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652808</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652808</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652808</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="W3" t="n">
-        <v>637.9238066331955</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
-        <v>637.9238066331955</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>637.9238066331955</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1212.670371790525</v>
+        <v>841.6085069816218</v>
       </c>
       <c r="C5" t="n">
-        <v>843.7078548501138</v>
+        <v>841.6085069816218</v>
       </c>
       <c r="D5" t="n">
-        <v>843.7078548501138</v>
+        <v>483.3428083748713</v>
       </c>
       <c r="E5" t="n">
-        <v>457.9196022518696</v>
+        <v>365.222891212954</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226206</v>
+        <v>358.2773904637506</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675764</v>
+        <v>345.9017493182462</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017215</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746972</v>
+        <v>277.9807166746981</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030754</v>
+        <v>521.2049416030769</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709168</v>
+        <v>823.5081935709193</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.31683658275</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1416.413635079242</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332756</v>
+        <v>1621.822248332761</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837882</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837882</v>
+        <v>1703.718566540656</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837882</v>
+        <v>1562.810726301004</v>
       </c>
       <c r="T5" t="n">
-        <v>1586.136130051605</v>
+        <v>1562.810726301004</v>
       </c>
       <c r="U5" t="n">
-        <v>1586.136130051605</v>
+        <v>1562.810726301004</v>
       </c>
       <c r="V5" t="n">
-        <v>1586.136130051605</v>
+        <v>1231.747838957433</v>
       </c>
       <c r="W5" t="n">
-        <v>1586.136130051605</v>
+        <v>1231.747838957433</v>
       </c>
       <c r="X5" t="n">
-        <v>1212.670371790525</v>
+        <v>1231.747838957433</v>
       </c>
       <c r="Y5" t="n">
-        <v>1212.670371790525</v>
+        <v>841.6085069816218</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517.1829502645915</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="C6" t="n">
-        <v>342.7299209834644</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="D6" t="n">
-        <v>193.7955113222131</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787522</v>
+        <v>61.66788464787555</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806061</v>
+        <v>186.1577239806068</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189975</v>
+        <v>399.8722171189987</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223494</v>
+        <v>668.6238185223514</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352471</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228318</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639507</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906548</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906548</v>
+        <v>1401.100270703776</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906548</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="T6" t="n">
-        <v>1250.338042626303</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="U6" t="n">
-        <v>1250.338042626303</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.338042626303</v>
+        <v>827.616652187384</v>
       </c>
       <c r="W6" t="n">
-        <v>1101.010086255146</v>
+        <v>573.3792954591825</v>
       </c>
       <c r="X6" t="n">
-        <v>893.1585860496134</v>
+        <v>365.5277952536496</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.3982872846595</v>
+        <v>362.0108483422813</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574677</v>
+        <v>64.24066662574714</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584113</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347968</v>
+        <v>206.9680378347978</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195361</v>
+        <v>287.8841338195375</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934711</v>
+        <v>342.3101561934727</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857997</v>
+        <v>145.47730212171</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857997</v>
+        <v>145.47730212171</v>
       </c>
       <c r="V7" t="n">
-        <v>323.9752263537183</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="W7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675775</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>979.0278707680238</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="C8" t="n">
-        <v>610.0653538276122</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="D8" t="n">
-        <v>251.7996552208617</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E8" t="n">
-        <v>251.7996552208617</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="F8" t="n">
-        <v>244.8541544716582</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642788</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642788</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="V8" t="n">
-        <v>1705.262284299218</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="W8" t="n">
-        <v>1352.493629029104</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="X8" t="n">
-        <v>979.0278707680238</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="Y8" t="n">
-        <v>979.0278707680238</v>
+        <v>1289.352831745533</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.1575331278234</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="C9" t="n">
-        <v>367.7045038466964</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="D9" t="n">
-        <v>218.7700941854451</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="E9" t="n">
-        <v>218.7700941854451</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="F9" t="n">
-        <v>72.23553621233012</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="G9" t="n">
-        <v>72.23553621233012</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972668</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474386</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948362</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081626</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1172.461727081626</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W9" t="n">
-        <v>918.2243703534243</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X9" t="n">
-        <v>710.3728701478915</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y9" t="n">
-        <v>710.3728701478915</v>
+        <v>267.4604631511913</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406007</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V10" t="n">
-        <v>332.7863665750538</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>545.3854261579738</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>397.4723325755807</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650321</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,13 +5595,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
         <v>2129.438138565707</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856862</v>
+        <v>762.5477693179097</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577775</v>
+        <v>593.6115863900028</v>
       </c>
       <c r="D19" t="n">
-        <v>489.8360330454417</v>
+        <v>443.494946977667</v>
       </c>
       <c r="E19" t="n">
-        <v>341.9229394630486</v>
+        <v>295.5818533952739</v>
       </c>
       <c r="F19" t="n">
-        <v>341.9229394630486</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>174.7268401779285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159259</v>
+        <v>762.5477693179097</v>
       </c>
     </row>
     <row r="20">
@@ -5738,25 +5738,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6546,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378162</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172275</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135314</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
         <v>119.290296770379</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400699</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.917417812163</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.917417812163</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.917417812163</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.917417812163</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270429</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7576,43 +7576,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138397</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703096</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.36248435538795</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.11263957635595</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610416</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>60.1936374875668</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143944</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260915</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891665</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194356</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267405015</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775398</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775395</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="M2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752548</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253114</v>
+        <v>270592.3620253131</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231948</v>
+        <v>115410.0540231921</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854464</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881943</v>
+        <v>62913.6376588199</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197533</v>
+        <v>27875.25362197471</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263464</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888973</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26445,7 +26445,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26454,7 +26454,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936813</v>
+        <v>76435.73471936825</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331623.9846149835</v>
+        <v>-331623.9846149834</v>
       </c>
       <c r="C6" t="n">
-        <v>41622.7634805791</v>
+        <v>41622.76348057782</v>
       </c>
       <c r="D6" t="n">
-        <v>220443.1571836408</v>
+        <v>220443.1571836431</v>
       </c>
       <c r="E6" t="n">
-        <v>-132211.1486647841</v>
+        <v>-132245.8865902212</v>
       </c>
       <c r="F6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.320984044</v>
       </c>
       <c r="G6" t="n">
-        <v>469232.0589094797</v>
+        <v>469197.3209840441</v>
       </c>
       <c r="H6" t="n">
-        <v>469232.0589094799</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="I6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="J6" t="n">
-        <v>420167.1141809351</v>
+        <v>420132.3762554995</v>
       </c>
       <c r="K6" t="n">
-        <v>406318.4212506606</v>
+        <v>406283.6833252244</v>
       </c>
       <c r="L6" t="n">
-        <v>441356.8052875047</v>
+        <v>441322.0673620694</v>
       </c>
       <c r="M6" t="n">
-        <v>312085.678357882</v>
+        <v>312050.9404324463</v>
       </c>
       <c r="N6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="O6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.3209840443</v>
       </c>
       <c r="P6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.3209840446</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950611</v>
+        <v>758.8996292950623</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594705</v>
+        <v>431.9757039594718</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821562</v>
+        <v>210.4296883821576</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262403</v>
+        <v>94.81103524262187</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666914</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.45011679315</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666914</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543627</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>28.60460395604642</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988657</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>337.7608235954359</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,13 +27461,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846314</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>140.6382265491551</v>
+        <v>215.300287159322</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825412</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.4700942971624</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625585</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>264.9916520819638</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760048</v>
+        <v>92.85788772760031</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425921</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>69.39172258651496</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937518</v>
+        <v>43.3208508493751</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074802</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>103.8603063534745</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>202.2009183350497</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304055</v>
+        <v>30.24193919304041</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589162</v>
+        <v>36.91115760589145</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>206.7522583240673</v>
+        <v>142.3275899769253</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>212.4006264893974</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>204.0485487447926</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>65.92313698436053</v>
+        <v>39.18364296475526</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>66.50969266293657</v>
+        <v>1.354513060649737</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
     </row>
     <row r="20">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29676,7 +29676,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-3.694951207129925e-13</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30207,7 +30207,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31215,31 +31215,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085671</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429363</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286702</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520267</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511774</v>
+        <v>481.4474502511781</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968097</v>
+        <v>535.7030533968104</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610694</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191486</v>
+        <v>514.0343715191494</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860961</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634655</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898978</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868536</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062481</v>
+        <v>56.2015291506249</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316629</v>
+        <v>263.5887514316633</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721887</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658082</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468663</v>
+        <v>424.547067146867</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374451</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872488</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947719</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378877</v>
+        <v>6.579516597378887</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734529</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635556</v>
+        <v>96.7534822463557</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399137</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528487</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054707</v>
+        <v>61.53307486054716</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391199</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830797</v>
+        <v>5.847259438830806</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656346</v>
+        <v>0.07464586517656358</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32315,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>162.5000833330458</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198388</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070461</v>
+        <v>167.9900634070467</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811901</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695369</v>
+        <v>305.3568201695377</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644785</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974619</v>
+        <v>283.9361600974627</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308266</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.152088389016</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092685</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573039</v>
+        <v>125.7473124573043</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923146</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437899</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>293.205355063533</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930007</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729186</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872812</v>
+        <v>68.38629016872844</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554458</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501466</v>
+        <v>68.57507023501498</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230864</v>
+        <v>75.59399159230898</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876155</v>
+        <v>81.73343028761582</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569185</v>
+        <v>54.97578017569214</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235219</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066234</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060443</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,7 +35963,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096303</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>23.94570355317166</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010436</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
